--- a/Samples/CSVs/Fall_2022_Edit_1.04_Students.xlsx
+++ b/Samples/CSVs/Fall_2022_Edit_1.04_Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\UT-Student-Assignment\Samples\CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492C385-802B-434A-933F-74FAAD2E1BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F074A44-F061-40AA-828B-73BBF8016264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Student_Info" sheetId="1" r:id="rId1"/>
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13988,7 +13988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824E7E0-FD0D-402F-9FBD-7A8EB607EF1A}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
